--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_135.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_135.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,265 +488,278 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1066176470588235</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.24882, 38.911405)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.78, 11.38)]</t>
+          <t>[('0:00:09.560000', '0:00:32.440000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:32.700000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
+          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -749,456 +767,413 @@
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:36.820000', '0:00:38.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2444444444444444</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F/5', 'Eb/5', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['D', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:07.324217', '0:00:15.172562')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:02.486724', '0:01:10.753028')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.2, 52.32)]</t>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.82, 43.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.82, 6.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
